--- a/Code/Results/Cases/Case_1_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_171/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8120108017249095</v>
+        <v>0.7689787935149184</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03633178664765424</v>
+        <v>0.09934938549012529</v>
       </c>
       <c r="E2">
-        <v>0.0440203225614253</v>
+        <v>0.1193460124957659</v>
       </c>
       <c r="F2">
-        <v>1.074125065466404</v>
+        <v>2.006493858668705</v>
       </c>
       <c r="G2">
-        <v>0.8526623978098087</v>
+        <v>1.370177519816579</v>
       </c>
       <c r="H2">
-        <v>0.595317203244349</v>
+        <v>1.279577249586623</v>
       </c>
       <c r="I2">
-        <v>0.5559892383650684</v>
+        <v>1.275467134579213</v>
       </c>
       <c r="J2">
-        <v>0.07197827517829936</v>
+        <v>0.1660899761622581</v>
       </c>
       <c r="K2">
-        <v>1.589259768664107</v>
+        <v>0.6920889448149978</v>
       </c>
       <c r="L2">
-        <v>0.3915452954701522</v>
+        <v>0.3417046917287081</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.071739869366921</v>
+        <v>2.250971858947203</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.716255186325327</v>
+        <v>0.7457963122945159</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03457130494026117</v>
+        <v>0.09915605637133851</v>
       </c>
       <c r="E3">
-        <v>0.04419451740535774</v>
+        <v>0.1196920202080007</v>
       </c>
       <c r="F3">
-        <v>1.033610936902882</v>
+        <v>2.008646777177354</v>
       </c>
       <c r="G3">
-        <v>0.8114310909077744</v>
+        <v>1.368971464488354</v>
       </c>
       <c r="H3">
-        <v>0.583435512306508</v>
+        <v>1.284041327579843</v>
       </c>
       <c r="I3">
-        <v>0.5628044677505741</v>
+        <v>1.284220363916905</v>
       </c>
       <c r="J3">
-        <v>0.07270763465647789</v>
+        <v>0.1665825441896436</v>
       </c>
       <c r="K3">
-        <v>1.378389095192148</v>
+        <v>0.6340528164168973</v>
       </c>
       <c r="L3">
-        <v>0.3449541492974788</v>
+        <v>0.3307997776868206</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.122045033096782</v>
+        <v>2.272235882313568</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6579127612770037</v>
+        <v>0.7318758648983703</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03350940762949506</v>
+        <v>0.09905504272061449</v>
       </c>
       <c r="E4">
-        <v>0.04432344938162647</v>
+        <v>0.1199213408156465</v>
       </c>
       <c r="F4">
-        <v>1.01050005501704</v>
+        <v>2.010911322070747</v>
       </c>
       <c r="G4">
-        <v>0.787723722992169</v>
+        <v>1.368986905682178</v>
       </c>
       <c r="H4">
-        <v>0.577078812449372</v>
+        <v>1.287313424717141</v>
       </c>
       <c r="I4">
-        <v>0.5678447187926423</v>
+        <v>1.290083090010299</v>
       </c>
       <c r="J4">
-        <v>0.0731836774450616</v>
+        <v>0.1669040084987445</v>
       </c>
       <c r="K4">
-        <v>1.249627823008012</v>
+        <v>0.5986448454915774</v>
       </c>
       <c r="L4">
-        <v>0.3166646175181143</v>
+        <v>0.3242642547458559</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.154215148084738</v>
+        <v>2.285954355169864</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6342408365078711</v>
+        <v>0.7262825694539572</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03308122161445226</v>
+        <v>0.09901835041024043</v>
       </c>
       <c r="E5">
-        <v>0.04438141051078404</v>
+        <v>0.1200190439563547</v>
       </c>
       <c r="F5">
-        <v>1.001504289517726</v>
+        <v>2.012071311825395</v>
       </c>
       <c r="G5">
-        <v>0.7784446476746325</v>
+        <v>1.369183239710594</v>
       </c>
       <c r="H5">
-        <v>0.5747141744584496</v>
+        <v>1.28878048304658</v>
       </c>
       <c r="I5">
-        <v>0.5701069406953749</v>
+        <v>1.292595034939247</v>
       </c>
       <c r="J5">
-        <v>0.07338468748860816</v>
+        <v>0.1670398027595885</v>
       </c>
       <c r="K5">
-        <v>1.197307249277458</v>
+        <v>0.5842732512741406</v>
       </c>
       <c r="L5">
-        <v>0.305208526119614</v>
+        <v>0.3216413758860455</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.167640216913957</v>
+        <v>2.291711294995345</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6303160603448532</v>
+        <v>0.7253586178865135</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03301038948576362</v>
+        <v>0.09901252843044972</v>
       </c>
       <c r="E6">
-        <v>0.04439135935923355</v>
+        <v>0.1200355246890576</v>
       </c>
       <c r="F6">
-        <v>1.000035430786603</v>
+        <v>2.0122782556613</v>
       </c>
       <c r="G6">
-        <v>0.7769262881600412</v>
+        <v>1.369227317402562</v>
       </c>
       <c r="H6">
-        <v>0.5743348740877678</v>
+        <v>1.28903216201401</v>
       </c>
       <c r="I6">
-        <v>0.5704949655183036</v>
+        <v>1.293019562647846</v>
       </c>
       <c r="J6">
-        <v>0.07341848686980201</v>
+        <v>0.1670626412148501</v>
       </c>
       <c r="K6">
-        <v>1.188627746216213</v>
+        <v>0.5818903430918283</v>
       </c>
       <c r="L6">
-        <v>0.3033103887521946</v>
+        <v>0.3212082927910558</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.169888295669381</v>
+        <v>2.292677290239206</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6575931095464682</v>
+        <v>0.731800109582764</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03350361486405973</v>
+        <v>0.09905452973854167</v>
       </c>
       <c r="E7">
-        <v>0.04432420925232172</v>
+        <v>0.119922641238658</v>
       </c>
       <c r="F7">
-        <v>1.010377053733322</v>
+        <v>2.01092600563377</v>
       </c>
       <c r="G7">
-        <v>0.787597065050619</v>
+        <v>1.368988784110599</v>
       </c>
       <c r="H7">
-        <v>0.5770460211585799</v>
+        <v>1.287332668704209</v>
       </c>
       <c r="I7">
-        <v>0.5678743934456847</v>
+        <v>1.290116469523007</v>
       </c>
       <c r="J7">
-        <v>0.07318636001361778</v>
+        <v>0.1669058204386258</v>
       </c>
       <c r="K7">
-        <v>1.248921636297666</v>
+        <v>0.5984507919046678</v>
       </c>
       <c r="L7">
-        <v>0.3165098345621402</v>
+        <v>0.32422871793176</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.154394934866414</v>
+        <v>2.286031320897616</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7788939123806529</v>
+        <v>0.7609206706120801</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03572066597218182</v>
+        <v>0.09927906736673364</v>
       </c>
       <c r="E8">
-        <v>0.04407575752885995</v>
+        <v>0.1194618210230574</v>
       </c>
       <c r="F8">
-        <v>1.059776038146509</v>
+        <v>2.007040614746728</v>
       </c>
       <c r="G8">
-        <v>0.8380978846477944</v>
+        <v>1.369604736042092</v>
       </c>
       <c r="H8">
-        <v>0.5910192020961347</v>
+        <v>1.281006281121549</v>
       </c>
       <c r="I8">
-        <v>0.5581572823328464</v>
+        <v>1.278383963894637</v>
       </c>
       <c r="J8">
-        <v>0.07222385529785935</v>
+        <v>0.166255871376638</v>
       </c>
       <c r="K8">
-        <v>1.5163853590401</v>
+        <v>0.6720313694960964</v>
       </c>
       <c r="L8">
-        <v>0.3754099334658463</v>
+        <v>0.337911515418412</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.088814567676511</v>
+        <v>2.258166250227326</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.020867218003445</v>
+        <v>0.8204957013398371</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04023177018438773</v>
+        <v>0.0998588184785234</v>
       </c>
       <c r="E9">
-        <v>0.04376817354066231</v>
+        <v>0.1186915337197059</v>
       </c>
       <c r="F9">
-        <v>1.171695795039994</v>
+        <v>2.006897042123853</v>
       </c>
       <c r="G9">
-        <v>0.9509869344515067</v>
+        <v>1.376815205956561</v>
       </c>
       <c r="H9">
-        <v>0.6263634729265561</v>
+        <v>1.272811233569783</v>
       </c>
       <c r="I9">
-        <v>0.5462196741342851</v>
+        <v>1.259247209835006</v>
       </c>
       <c r="J9">
-        <v>0.0705639660538302</v>
+        <v>0.1651317934355796</v>
       </c>
       <c r="K9">
-        <v>2.047961786832161</v>
+        <v>0.8181051498983152</v>
       </c>
       <c r="L9">
-        <v>0.4938105819310721</v>
+        <v>0.3660100126754742</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9707195676311837</v>
+        <v>2.208776246321495</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.201928608488288</v>
+        <v>0.8657503921433545</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04366513780307457</v>
+        <v>0.1003686072180585</v>
       </c>
       <c r="E10">
-        <v>0.04365984969422776</v>
+        <v>0.1182062696128532</v>
       </c>
       <c r="F10">
-        <v>1.264653338418668</v>
+        <v>2.011346922467013</v>
       </c>
       <c r="G10">
-        <v>1.044002315045049</v>
+        <v>1.385781028091628</v>
       </c>
       <c r="H10">
-        <v>0.657910901401948</v>
+        <v>1.269354134285976</v>
       </c>
       <c r="I10">
-        <v>0.5422726951104622</v>
+        <v>1.247543181412105</v>
       </c>
       <c r="J10">
-        <v>0.0694888927476196</v>
+        <v>0.1643969861105212</v>
       </c>
       <c r="K10">
-        <v>2.444968461537371</v>
+        <v>0.9265044069567807</v>
       </c>
       <c r="L10">
-        <v>0.5831354334045784</v>
+        <v>0.3874232299922511</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8908464456858294</v>
+        <v>2.175688629203043</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.285199067615025</v>
+        <v>0.8866563052121421</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04525782295042546</v>
+        <v>0.1006184940121102</v>
       </c>
       <c r="E11">
-        <v>0.04363818507346418</v>
+        <v>0.1180028910264426</v>
       </c>
       <c r="F11">
-        <v>1.309645917513308</v>
+        <v>2.014360259595577</v>
       </c>
       <c r="G11">
-        <v>1.088897179299849</v>
+        <v>1.390658481069892</v>
       </c>
       <c r="H11">
-        <v>0.6736520367940955</v>
+        <v>1.268337519063763</v>
       </c>
       <c r="I11">
-        <v>0.5416401665063475</v>
+        <v>1.242729456239147</v>
       </c>
       <c r="J11">
-        <v>0.06903263052085107</v>
+        <v>0.1640823311729349</v>
       </c>
       <c r="K11">
-        <v>2.627497432340306</v>
+        <v>0.9760513440485283</v>
       </c>
       <c r="L11">
-        <v>0.6244163614058493</v>
+        <v>0.39733124515989</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.856122844089569</v>
+        <v>2.161330189369201</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.316878077601729</v>
+        <v>0.8946182961465752</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04586581809182633</v>
+        <v>0.1007156841976595</v>
       </c>
       <c r="E12">
-        <v>0.04363414730877846</v>
+        <v>0.117928364047212</v>
       </c>
       <c r="F12">
-        <v>1.327106199154656</v>
+        <v>2.015643490701521</v>
       </c>
       <c r="G12">
-        <v>1.10630433749418</v>
+        <v>1.392620440937378</v>
       </c>
       <c r="H12">
-        <v>0.6798287654686561</v>
+        <v>1.268032446665501</v>
       </c>
       <c r="I12">
-        <v>0.5415783176272768</v>
+        <v>1.240979973546608</v>
       </c>
       <c r="J12">
-        <v>0.06886471131130989</v>
+        <v>0.1639659889568525</v>
       </c>
       <c r="K12">
-        <v>2.696940041344192</v>
+        <v>0.9948470123673587</v>
       </c>
       <c r="L12">
-        <v>0.6401536605688136</v>
+        <v>0.4011070780861985</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8432163138758924</v>
+        <v>2.155992708346812</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.310048658367009</v>
+        <v>0.8929015295031206</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04573465079026562</v>
+        <v>0.1006946388927261</v>
       </c>
       <c r="E13">
-        <v>0.04363482827308074</v>
+        <v>0.1179443042624495</v>
       </c>
       <c r="F13">
-        <v>1.323326459862315</v>
+        <v>2.015360803223686</v>
       </c>
       <c r="G13">
-        <v>1.102536726979949</v>
+        <v>1.392192782668587</v>
       </c>
       <c r="H13">
-        <v>0.6784886253246327</v>
+        <v>1.268094596929458</v>
       </c>
       <c r="I13">
-        <v>0.5415835611365694</v>
+        <v>1.241353493370099</v>
       </c>
       <c r="J13">
-        <v>0.06890065725477124</v>
+        <v>0.1639909204745811</v>
       </c>
       <c r="K13">
-        <v>2.681969209044439</v>
+        <v>0.9907975559030149</v>
       </c>
       <c r="L13">
-        <v>0.6367594732347897</v>
+        <v>0.4002928248982727</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8459849968789541</v>
+        <v>2.157137793126019</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.287802289703052</v>
+        <v>0.8873104367184226</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04530774254440573</v>
+        <v>0.1006264386575104</v>
       </c>
       <c r="E14">
-        <v>0.04363776818973752</v>
+        <v>0.1179967098378025</v>
       </c>
       <c r="F14">
-        <v>1.311073715319651</v>
+        <v>2.014462983436417</v>
       </c>
       <c r="G14">
-        <v>1.090320919215884</v>
+        <v>1.390817587859402</v>
       </c>
       <c r="H14">
-        <v>0.6741557766629001</v>
+        <v>1.268310819642863</v>
       </c>
       <c r="I14">
-        <v>0.5416314547019425</v>
+        <v>1.242584055005594</v>
       </c>
       <c r="J14">
-        <v>0.06901871748813537</v>
+        <v>0.1640727033507252</v>
       </c>
       <c r="K14">
-        <v>2.633203773069056</v>
+        <v>0.9775970104263081</v>
       </c>
       <c r="L14">
-        <v>0.6257088989848114</v>
+        <v>0.3976414073472938</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8550560899105193</v>
+        <v>2.160889072156039</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.274195300088422</v>
+        <v>0.8838916240444519</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04504689850354637</v>
+        <v>0.1005849972297987</v>
       </c>
       <c r="E15">
-        <v>0.04364011770637433</v>
+        <v>0.1180291334986481</v>
       </c>
       <c r="F15">
-        <v>1.303624624929412</v>
+        <v>2.013931552090668</v>
       </c>
       <c r="G15">
-        <v>1.082892408269601</v>
+        <v>1.389990217347361</v>
       </c>
       <c r="H15">
-        <v>0.6715303957799676</v>
+        <v>1.268453665587742</v>
       </c>
       <c r="I15">
-        <v>0.5416842526304464</v>
+        <v>1.243347363432726</v>
       </c>
       <c r="J15">
-        <v>0.06909166984381443</v>
+        <v>0.1641231634900353</v>
       </c>
       <c r="K15">
-        <v>2.603376994828551</v>
+        <v>0.9695156177118918</v>
       </c>
       <c r="L15">
-        <v>0.6189541679989077</v>
+        <v>0.3960204437019144</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8606443194987534</v>
+        <v>2.163199830776895</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.196506250311415</v>
+        <v>0.8643905207594003</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04356170953271743</v>
+        <v>0.1003526364550282</v>
       </c>
       <c r="E16">
-        <v>0.04366183738459606</v>
+        <v>0.1182199095823009</v>
       </c>
       <c r="F16">
-        <v>1.261770217655879</v>
+        <v>2.011169889395589</v>
       </c>
       <c r="G16">
-        <v>1.041123226814264</v>
+        <v>1.385478358606321</v>
       </c>
       <c r="H16">
-        <v>0.6569114928022515</v>
+        <v>1.269431756233516</v>
       </c>
       <c r="I16">
-        <v>0.5423383096115231</v>
+        <v>1.247868038878956</v>
       </c>
       <c r="J16">
-        <v>0.06951938220629916</v>
+        <v>0.1644179433933224</v>
       </c>
       <c r="K16">
-        <v>2.43308237946141</v>
+        <v>0.9232710908352431</v>
       </c>
       <c r="L16">
-        <v>0.5804516535411608</v>
+        <v>0.3867790673728422</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8931490446954449</v>
+        <v>2.17664094228947</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.149089400171079</v>
+        <v>0.8525086259201657</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04265879313575027</v>
+        <v>0.100214680221832</v>
       </c>
       <c r="E17">
-        <v>0.04368236633068578</v>
+        <v>0.1183413865393468</v>
       </c>
       <c r="F17">
-        <v>1.236809919005381</v>
+        <v>2.009728964271289</v>
       </c>
       <c r="G17">
-        <v>1.016184608236202</v>
+        <v>1.382915156347551</v>
       </c>
       <c r="H17">
-        <v>0.6483102957868709</v>
+        <v>1.270174154673967</v>
       </c>
       <c r="I17">
-        <v>0.5430446097950892</v>
+        <v>1.250772049728397</v>
       </c>
       <c r="J17">
-        <v>0.06979026510423791</v>
+        <v>0.1646037977916821</v>
       </c>
       <c r="K17">
-        <v>2.32913734797765</v>
+        <v>0.8949615110918501</v>
       </c>
       <c r="L17">
-        <v>0.5570055445759152</v>
+        <v>0.3811524666188006</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9135097596698163</v>
+        <v>2.185064233538087</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.121900599185324</v>
+        <v>0.8457045632981135</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04214233179314064</v>
+        <v>0.100137025250433</v>
       </c>
       <c r="E18">
-        <v>0.04369676012281909</v>
+        <v>0.1184128924440531</v>
       </c>
       <c r="F18">
-        <v>1.22270593839545</v>
+        <v>2.008993282394954</v>
       </c>
       <c r="G18">
-        <v>1.002081310644527</v>
+        <v>1.381516056256103</v>
       </c>
       <c r="H18">
-        <v>0.6434929218856809</v>
+        <v>1.270653502900046</v>
       </c>
       <c r="I18">
-        <v>0.5435596506265696</v>
+        <v>1.252490412489031</v>
       </c>
       <c r="J18">
-        <v>0.06994914713690337</v>
+        <v>0.1647125429189433</v>
       </c>
       <c r="K18">
-        <v>2.269529510577314</v>
+        <v>0.8787007959302287</v>
       </c>
       <c r="L18">
-        <v>0.543580042596659</v>
+        <v>0.3779319249970143</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9253716494383646</v>
+        <v>2.189974339434833</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.112708911730095</v>
+        <v>0.843406008998727</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04196794733924847</v>
+        <v>0.1001110242041108</v>
       </c>
       <c r="E19">
-        <v>0.04370207216597999</v>
+        <v>0.1184373843250022</v>
       </c>
       <c r="F19">
-        <v>1.217972965297363</v>
+        <v>2.008760185666603</v>
       </c>
       <c r="G19">
-        <v>0.997346495139638</v>
+        <v>1.381055255252861</v>
       </c>
       <c r="H19">
-        <v>0.6418836688190339</v>
+        <v>1.270824793307526</v>
       </c>
       <c r="I19">
-        <v>0.543752414494989</v>
+        <v>1.253080474840935</v>
       </c>
       <c r="J19">
-        <v>0.0700034663398843</v>
+        <v>0.1647496795948498</v>
       </c>
       <c r="K19">
-        <v>2.249376668147733</v>
+        <v>0.8731990280874697</v>
       </c>
       <c r="L19">
-        <v>0.5390443632731063</v>
+        <v>0.3768442108099208</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9294134883311962</v>
+        <v>2.191648022319781</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.154128185567146</v>
+        <v>0.8537703637485947</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0427546097736311</v>
+        <v>0.1002291907585331</v>
       </c>
       <c r="E20">
-        <v>0.04367991199165377</v>
+        <v>0.1183282859057631</v>
       </c>
       <c r="F20">
-        <v>1.239440615868503</v>
+        <v>2.009872718277862</v>
       </c>
       <c r="G20">
-        <v>1.018814205272704</v>
+        <v>1.383180231405021</v>
       </c>
       <c r="H20">
-        <v>0.6492123613647465</v>
+        <v>1.270089708502454</v>
       </c>
       <c r="I20">
-        <v>0.5429580897821822</v>
+        <v>1.25045793983643</v>
       </c>
       <c r="J20">
-        <v>0.06976110968711469</v>
+        <v>0.1645838222276028</v>
       </c>
       <c r="K20">
-        <v>2.340183672184821</v>
+        <v>0.8979728199412307</v>
       </c>
       <c r="L20">
-        <v>0.5594951201206442</v>
+        <v>0.3817498008383353</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9113266283999248</v>
+        <v>2.184160806119461</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.294332481837216</v>
+        <v>0.888951449051973</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04543299960451463</v>
+        <v>0.100646401323722</v>
       </c>
       <c r="E21">
-        <v>0.0436367899291219</v>
+        <v>0.1179812496016841</v>
       </c>
       <c r="F21">
-        <v>1.314660895087258</v>
+        <v>2.014722837713464</v>
       </c>
       <c r="G21">
-        <v>1.093897672690218</v>
+        <v>1.391218394743078</v>
       </c>
       <c r="H21">
-        <v>0.6754224457989295</v>
+        <v>1.268245141859111</v>
       </c>
       <c r="I21">
-        <v>0.5416124780627172</v>
+        <v>1.242220618268057</v>
       </c>
       <c r="J21">
-        <v>0.06898390729838022</v>
+        <v>0.1640486055288073</v>
       </c>
       <c r="K21">
-        <v>2.6475182202187</v>
+        <v>0.981473430796683</v>
       </c>
       <c r="L21">
-        <v>0.628951766367507</v>
+        <v>0.3984195458753561</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8523850166635079</v>
+        <v>2.159784522969176</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.386825232569862</v>
+        <v>0.9122085528301511</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04721216907820747</v>
+        <v>0.1009340043183826</v>
       </c>
       <c r="E22">
-        <v>0.04363299778470431</v>
+        <v>0.1177689392715129</v>
       </c>
       <c r="F22">
-        <v>1.366302221393283</v>
+        <v>2.01872116862053</v>
       </c>
       <c r="G22">
-        <v>1.145356552988559</v>
+        <v>1.397142003933467</v>
       </c>
       <c r="H22">
-        <v>0.6938190741743711</v>
+        <v>1.267505289109437</v>
       </c>
       <c r="I22">
-        <v>0.5417740895698486</v>
+        <v>1.237264695075382</v>
       </c>
       <c r="J22">
-        <v>0.06850435094707397</v>
+        <v>0.1637151895185003</v>
       </c>
       <c r="K22">
-        <v>2.850284822956098</v>
+        <v>1.036239854863993</v>
       </c>
       <c r="L22">
-        <v>0.6749647024051342</v>
+        <v>0.4094533306887058</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8152826526656227</v>
+        <v>2.144434651543421</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.337375637888385</v>
+        <v>0.8997718010666063</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04625980739601232</v>
+        <v>0.1007791462113161</v>
       </c>
       <c r="E23">
-        <v>0.04363271950664105</v>
+        <v>0.1178809299297958</v>
       </c>
       <c r="F23">
-        <v>1.338501543734466</v>
+        <v>2.016511402932821</v>
       </c>
       <c r="G23">
-        <v>1.117661146609962</v>
+        <v>1.393919105332415</v>
       </c>
       <c r="H23">
-        <v>0.6838789001696739</v>
+        <v>1.267857572288449</v>
       </c>
       <c r="I23">
-        <v>0.5415889231960165</v>
+        <v>1.239870647623775</v>
       </c>
       <c r="J23">
-        <v>0.06875765036450598</v>
+        <v>0.1638916443442211</v>
       </c>
       <c r="K23">
-        <v>2.741874059671716</v>
+        <v>1.006992421198191</v>
       </c>
       <c r="L23">
-        <v>0.650345824727566</v>
+        <v>0.403551705668562</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8349511968095911</v>
+        <v>2.152573946001789</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.151849928327437</v>
+        <v>0.8531998479423919</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04271128289029491</v>
+        <v>0.1002226253798391</v>
       </c>
       <c r="E24">
-        <v>0.04368101354109388</v>
+        <v>0.1183342035090598</v>
       </c>
       <c r="F24">
-        <v>1.238250513996448</v>
+        <v>2.009807438247975</v>
       </c>
       <c r="G24">
-        <v>1.017624637455114</v>
+        <v>1.383060158853837</v>
       </c>
       <c r="H24">
-        <v>0.6488041413641383</v>
+        <v>1.270127722968368</v>
       </c>
       <c r="I24">
-        <v>0.5429968668138372</v>
+        <v>1.250599796878376</v>
       </c>
       <c r="J24">
-        <v>0.06977428105678296</v>
+        <v>0.164592847277429</v>
       </c>
       <c r="K24">
-        <v>2.335189160374455</v>
+        <v>0.8966113609472188</v>
       </c>
       <c r="L24">
-        <v>0.5583694157911623</v>
+        <v>0.3814797015907203</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9123131361959516</v>
+        <v>2.184569035569456</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9548902169516964</v>
+        <v>0.8041168202159099</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03899201213190295</v>
+        <v>0.09968717352927214</v>
       </c>
       <c r="E25">
-        <v>0.04383136265296983</v>
+        <v>0.1188857047724921</v>
       </c>
       <c r="F25">
-        <v>1.139653395180432</v>
+        <v>2.006135772623267</v>
       </c>
       <c r="G25">
-        <v>0.9188028603112031</v>
+        <v>1.374221041898522</v>
       </c>
       <c r="H25">
-        <v>0.6158785987499726</v>
+        <v>1.274577744961448</v>
       </c>
       <c r="I25">
-        <v>0.5486390515118735</v>
+        <v>1.264010236293686</v>
       </c>
       <c r="J25">
-        <v>0.07098809390396665</v>
+        <v>0.1654198478637481</v>
       </c>
       <c r="K25">
-        <v>1.903186667981061</v>
+        <v>0.7783983018283323</v>
       </c>
       <c r="L25">
-        <v>0.4614135468325031</v>
+        <v>0.3582733285847581</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.001494440913911</v>
+        <v>2.221575506376224</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_171/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7689787935149184</v>
+        <v>0.8120108017249095</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09934938549012529</v>
+        <v>0.03633178664776793</v>
       </c>
       <c r="E2">
-        <v>0.1193460124957659</v>
+        <v>0.04402032256140531</v>
       </c>
       <c r="F2">
-        <v>2.006493858668705</v>
+        <v>1.074125065466376</v>
       </c>
       <c r="G2">
-        <v>1.370177519816579</v>
+        <v>0.8526623978097803</v>
       </c>
       <c r="H2">
-        <v>1.279577249586623</v>
+        <v>0.5953172032442353</v>
       </c>
       <c r="I2">
-        <v>1.275467134579213</v>
+        <v>0.5559892383650471</v>
       </c>
       <c r="J2">
-        <v>0.1660899761622581</v>
+        <v>0.07197827517830868</v>
       </c>
       <c r="K2">
-        <v>0.6920889448149978</v>
+        <v>1.589259768664164</v>
       </c>
       <c r="L2">
-        <v>0.3417046917287081</v>
+        <v>0.3915452954701095</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.250971858947203</v>
+        <v>1.071739869366917</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7457963122945159</v>
+        <v>0.7162551863254407</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09915605637133851</v>
+        <v>0.03457130494013683</v>
       </c>
       <c r="E3">
-        <v>0.1196920202080007</v>
+        <v>0.0441945174053564</v>
       </c>
       <c r="F3">
-        <v>2.008646777177354</v>
+        <v>1.033610936902882</v>
       </c>
       <c r="G3">
-        <v>1.368971464488354</v>
+        <v>0.8114310909078029</v>
       </c>
       <c r="H3">
-        <v>1.284041327579843</v>
+        <v>0.5834355123063801</v>
       </c>
       <c r="I3">
-        <v>1.284220363916905</v>
+        <v>0.5628044677505564</v>
       </c>
       <c r="J3">
-        <v>0.1665825441896436</v>
+        <v>0.07270763465662222</v>
       </c>
       <c r="K3">
-        <v>0.6340528164168973</v>
+        <v>1.378389095192205</v>
       </c>
       <c r="L3">
-        <v>0.3307997776868206</v>
+        <v>0.3449541492976351</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.272235882313568</v>
+        <v>1.122045033096779</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7318758648983703</v>
+        <v>0.6579127612770321</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09905504272061449</v>
+        <v>0.03350940762949151</v>
       </c>
       <c r="E4">
-        <v>0.1199213408156465</v>
+        <v>0.04432344938162558</v>
       </c>
       <c r="F4">
-        <v>2.010911322070747</v>
+        <v>1.010500055017047</v>
       </c>
       <c r="G4">
-        <v>1.368986905682178</v>
+        <v>0.78772372299224</v>
       </c>
       <c r="H4">
-        <v>1.287313424717141</v>
+        <v>0.577078812449372</v>
       </c>
       <c r="I4">
-        <v>1.290083090010299</v>
+        <v>0.5678447187926494</v>
       </c>
       <c r="J4">
-        <v>0.1669040084987445</v>
+        <v>0.07318367744523435</v>
       </c>
       <c r="K4">
-        <v>0.5986448454915774</v>
+        <v>1.249627823008012</v>
       </c>
       <c r="L4">
-        <v>0.3242642547458559</v>
+        <v>0.3166646175180006</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.285954355169864</v>
+        <v>1.154215148084681</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7262825694539572</v>
+        <v>0.6342408365078427</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09901835041024043</v>
+        <v>0.03308122161433502</v>
       </c>
       <c r="E5">
-        <v>0.1200190439563547</v>
+        <v>0.04438141051078315</v>
       </c>
       <c r="F5">
-        <v>2.012071311825395</v>
+        <v>1.00150428951774</v>
       </c>
       <c r="G5">
-        <v>1.369183239710594</v>
+        <v>0.7784446476746609</v>
       </c>
       <c r="H5">
-        <v>1.28878048304658</v>
+        <v>0.5747141744584496</v>
       </c>
       <c r="I5">
-        <v>1.292595034939247</v>
+        <v>0.5701069406953891</v>
       </c>
       <c r="J5">
-        <v>0.1670398027595885</v>
+        <v>0.07338468748861482</v>
       </c>
       <c r="K5">
-        <v>0.5842732512741406</v>
+        <v>1.197307249277372</v>
       </c>
       <c r="L5">
-        <v>0.3216413758860455</v>
+        <v>0.3052085261196993</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.291711294995345</v>
+        <v>1.167640216913901</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7253586178865135</v>
+        <v>0.6303160603447395</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09901252843044972</v>
+        <v>0.03301038948598389</v>
       </c>
       <c r="E6">
-        <v>0.1200355246890576</v>
+        <v>0.04439135935924687</v>
       </c>
       <c r="F6">
-        <v>2.0122782556613</v>
+        <v>1.000035430786596</v>
       </c>
       <c r="G6">
-        <v>1.369227317402562</v>
+        <v>0.7769262881600838</v>
       </c>
       <c r="H6">
-        <v>1.28903216201401</v>
+        <v>0.5743348740877678</v>
       </c>
       <c r="I6">
-        <v>1.293019562647846</v>
+        <v>0.5704949655183036</v>
       </c>
       <c r="J6">
-        <v>0.1670626412148501</v>
+        <v>0.07341848686970209</v>
       </c>
       <c r="K6">
-        <v>0.5818903430918283</v>
+        <v>1.188627746216099</v>
       </c>
       <c r="L6">
-        <v>0.3212082927910558</v>
+        <v>0.3033103887522515</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.292677290239206</v>
+        <v>1.169888295669374</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.731800109582764</v>
+        <v>0.6575931095465535</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09905452973854167</v>
+        <v>0.03350361486405617</v>
       </c>
       <c r="E7">
-        <v>0.119922641238658</v>
+        <v>0.04432420925231817</v>
       </c>
       <c r="F7">
-        <v>2.01092600563377</v>
+        <v>1.010377053733308</v>
       </c>
       <c r="G7">
-        <v>1.368988784110599</v>
+        <v>0.7875970650506048</v>
       </c>
       <c r="H7">
-        <v>1.287332668704209</v>
+        <v>0.5770460211585942</v>
       </c>
       <c r="I7">
-        <v>1.290116469523007</v>
+        <v>0.5678743934456882</v>
       </c>
       <c r="J7">
-        <v>0.1669058204386258</v>
+        <v>0.07318636001359469</v>
       </c>
       <c r="K7">
-        <v>0.5984507919046678</v>
+        <v>1.248921636297666</v>
       </c>
       <c r="L7">
-        <v>0.32422871793176</v>
+        <v>0.3165098345620692</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.286031320897616</v>
+        <v>1.154394934866396</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7609206706120801</v>
+        <v>0.7788939123807381</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09927906736673364</v>
+        <v>0.03572066597218182</v>
       </c>
       <c r="E8">
-        <v>0.1194618210230574</v>
+        <v>0.04407575752885995</v>
       </c>
       <c r="F8">
-        <v>2.007040614746728</v>
+        <v>1.059776038146495</v>
       </c>
       <c r="G8">
-        <v>1.369604736042092</v>
+        <v>0.8380978846477802</v>
       </c>
       <c r="H8">
-        <v>1.281006281121549</v>
+        <v>0.5910192020960068</v>
       </c>
       <c r="I8">
-        <v>1.278383963894637</v>
+        <v>0.5581572823328607</v>
       </c>
       <c r="J8">
-        <v>0.166255871376638</v>
+        <v>0.07222385529788822</v>
       </c>
       <c r="K8">
-        <v>0.6720313694960964</v>
+        <v>1.516385359040157</v>
       </c>
       <c r="L8">
-        <v>0.337911515418412</v>
+        <v>0.3754099334658321</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.258166250227326</v>
+        <v>1.088814567676559</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8204957013398371</v>
+        <v>1.020867218003389</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0998588184785234</v>
+        <v>0.04023177018438417</v>
       </c>
       <c r="E9">
-        <v>0.1186915337197059</v>
+        <v>0.04376817354066009</v>
       </c>
       <c r="F9">
-        <v>2.006897042123853</v>
+        <v>1.171695795039994</v>
       </c>
       <c r="G9">
-        <v>1.376815205956561</v>
+        <v>0.9509869344515209</v>
       </c>
       <c r="H9">
-        <v>1.272811233569783</v>
+        <v>0.6263634729265846</v>
       </c>
       <c r="I9">
-        <v>1.259247209835006</v>
+        <v>0.5462196741342673</v>
       </c>
       <c r="J9">
-        <v>0.1651317934355796</v>
+        <v>0.07056396605382176</v>
       </c>
       <c r="K9">
-        <v>0.8181051498983152</v>
+        <v>2.047961786832246</v>
       </c>
       <c r="L9">
-        <v>0.3660100126754742</v>
+        <v>0.4938105819311289</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.208776246321495</v>
+        <v>0.9707195676312388</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8657503921433545</v>
+        <v>1.201928608488259</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1003686072180585</v>
+        <v>0.04366513780306747</v>
       </c>
       <c r="E10">
-        <v>0.1182062696128532</v>
+        <v>0.04365984969422509</v>
       </c>
       <c r="F10">
-        <v>2.011346922467013</v>
+        <v>1.264653338418668</v>
       </c>
       <c r="G10">
-        <v>1.385781028091628</v>
+        <v>1.044002315045006</v>
       </c>
       <c r="H10">
-        <v>1.269354134285976</v>
+        <v>0.6579109014019764</v>
       </c>
       <c r="I10">
-        <v>1.247543181412105</v>
+        <v>0.5422726951104622</v>
       </c>
       <c r="J10">
-        <v>0.1643969861105212</v>
+        <v>0.06948889274761072</v>
       </c>
       <c r="K10">
-        <v>0.9265044069567807</v>
+        <v>2.444968461537343</v>
       </c>
       <c r="L10">
-        <v>0.3874232299922511</v>
+        <v>0.5831354334045784</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.175688629203043</v>
+        <v>0.8908464456858258</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8866563052121421</v>
+        <v>1.285199067614968</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1006184940121102</v>
+        <v>0.04525782295030467</v>
       </c>
       <c r="E11">
-        <v>0.1180028910264426</v>
+        <v>0.04363818507346151</v>
       </c>
       <c r="F11">
-        <v>2.014360259595577</v>
+        <v>1.309645917513279</v>
       </c>
       <c r="G11">
-        <v>1.390658481069892</v>
+        <v>1.088897179299821</v>
       </c>
       <c r="H11">
-        <v>1.268337519063763</v>
+        <v>0.673652036794067</v>
       </c>
       <c r="I11">
-        <v>1.242729456239147</v>
+        <v>0.5416401665063546</v>
       </c>
       <c r="J11">
-        <v>0.1640823311729349</v>
+        <v>0.06903263052094166</v>
       </c>
       <c r="K11">
-        <v>0.9760513440485283</v>
+        <v>2.627497432340277</v>
       </c>
       <c r="L11">
-        <v>0.39733124515989</v>
+        <v>0.6244163614058635</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.161330189369201</v>
+        <v>0.8561228440894944</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8946182961465752</v>
+        <v>1.316878077601871</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1007156841976595</v>
+        <v>0.04586581809181922</v>
       </c>
       <c r="E12">
-        <v>0.117928364047212</v>
+        <v>0.04363414730877935</v>
       </c>
       <c r="F12">
-        <v>2.015643490701521</v>
+        <v>1.327106199154656</v>
       </c>
       <c r="G12">
-        <v>1.392620440937378</v>
+        <v>1.10630433749418</v>
       </c>
       <c r="H12">
-        <v>1.268032446665501</v>
+        <v>0.6798287654686561</v>
       </c>
       <c r="I12">
-        <v>1.240979973546608</v>
+        <v>0.5415783176272768</v>
       </c>
       <c r="J12">
-        <v>0.1639659889568525</v>
+        <v>0.06886471131131078</v>
       </c>
       <c r="K12">
-        <v>0.9948470123673587</v>
+        <v>2.696940041344192</v>
       </c>
       <c r="L12">
-        <v>0.4011070780861985</v>
+        <v>0.6401536605688136</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.155992708346812</v>
+        <v>0.8432163138758924</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8929015295031206</v>
+        <v>1.31004865836681</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1006946388927261</v>
+        <v>0.04573465079045391</v>
       </c>
       <c r="E13">
-        <v>0.1179443042624495</v>
+        <v>0.04363482827307985</v>
       </c>
       <c r="F13">
-        <v>2.015360803223686</v>
+        <v>1.323326459862329</v>
       </c>
       <c r="G13">
-        <v>1.392192782668587</v>
+        <v>1.102536726979949</v>
       </c>
       <c r="H13">
-        <v>1.268094596929458</v>
+        <v>0.6784886253247606</v>
       </c>
       <c r="I13">
-        <v>1.241353493370099</v>
+        <v>0.5415835611365765</v>
       </c>
       <c r="J13">
-        <v>0.1639909204745811</v>
+        <v>0.06890065725484495</v>
       </c>
       <c r="K13">
-        <v>0.9907975559030149</v>
+        <v>2.681969209044354</v>
       </c>
       <c r="L13">
-        <v>0.4002928248982727</v>
+        <v>0.6367594732348181</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.157137793126019</v>
+        <v>0.8459849968789648</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8873104367184226</v>
+        <v>1.28780228970308</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1006264386575104</v>
+        <v>0.04530774254449099</v>
       </c>
       <c r="E14">
-        <v>0.1179967098378025</v>
+        <v>0.04363776818975396</v>
       </c>
       <c r="F14">
-        <v>2.014462983436417</v>
+        <v>1.311073715319665</v>
       </c>
       <c r="G14">
-        <v>1.390817587859402</v>
+        <v>1.090320919215912</v>
       </c>
       <c r="H14">
-        <v>1.268310819642863</v>
+        <v>0.6741557766628858</v>
       </c>
       <c r="I14">
-        <v>1.242584055005594</v>
+        <v>0.5416314547019496</v>
       </c>
       <c r="J14">
-        <v>0.1640727033507252</v>
+        <v>0.06901871748814159</v>
       </c>
       <c r="K14">
-        <v>0.9775970104263081</v>
+        <v>2.633203773069056</v>
       </c>
       <c r="L14">
-        <v>0.3976414073472938</v>
+        <v>0.6257088989848398</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.160889072156039</v>
+        <v>0.8550560899105193</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8838916240444519</v>
+        <v>1.27419530008865</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1005849972297987</v>
+        <v>0.04504689850350019</v>
       </c>
       <c r="E15">
-        <v>0.1180291334986481</v>
+        <v>0.04364011770636056</v>
       </c>
       <c r="F15">
-        <v>2.013931552090668</v>
+        <v>1.303624624929384</v>
       </c>
       <c r="G15">
-        <v>1.389990217347361</v>
+        <v>1.082892408269586</v>
       </c>
       <c r="H15">
-        <v>1.268453665587742</v>
+        <v>0.6715303957799676</v>
       </c>
       <c r="I15">
-        <v>1.243347363432726</v>
+        <v>0.5416842526304677</v>
       </c>
       <c r="J15">
-        <v>0.1641231634900353</v>
+        <v>0.06909166984378601</v>
       </c>
       <c r="K15">
-        <v>0.9695156177118918</v>
+        <v>2.603376994828523</v>
       </c>
       <c r="L15">
-        <v>0.3960204437019144</v>
+        <v>0.6189541679989503</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.163199830776895</v>
+        <v>0.8606443194987463</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8643905207594003</v>
+        <v>1.196506250311216</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1003526364550282</v>
+        <v>0.04356170953267835</v>
       </c>
       <c r="E16">
-        <v>0.1182199095823009</v>
+        <v>0.04366183738460006</v>
       </c>
       <c r="F16">
-        <v>2.011169889395589</v>
+        <v>1.261770217655879</v>
       </c>
       <c r="G16">
-        <v>1.385478358606321</v>
+        <v>1.04112322681425</v>
       </c>
       <c r="H16">
-        <v>1.269431756233516</v>
+        <v>0.6569114928023509</v>
       </c>
       <c r="I16">
-        <v>1.247868038878956</v>
+        <v>0.5423383096115018</v>
       </c>
       <c r="J16">
-        <v>0.1644179433933224</v>
+        <v>0.06951938220643727</v>
       </c>
       <c r="K16">
-        <v>0.9232710908352431</v>
+        <v>2.433082379461467</v>
       </c>
       <c r="L16">
-        <v>0.3867790673728422</v>
+        <v>0.5804516535410471</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.17664094228947</v>
+        <v>0.8931490446953703</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8525086259201657</v>
+        <v>1.149089400171107</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.100214680221832</v>
+        <v>0.04265879313567567</v>
       </c>
       <c r="E17">
-        <v>0.1183413865393468</v>
+        <v>0.04368236633066802</v>
       </c>
       <c r="F17">
-        <v>2.009728964271289</v>
+        <v>1.236809919005395</v>
       </c>
       <c r="G17">
-        <v>1.382915156347551</v>
+        <v>1.016184608236202</v>
       </c>
       <c r="H17">
-        <v>1.270174154673967</v>
+        <v>0.6483102957869846</v>
       </c>
       <c r="I17">
-        <v>1.250772049728397</v>
+        <v>0.543044609795075</v>
       </c>
       <c r="J17">
-        <v>0.1646037977916821</v>
+        <v>0.06979026510433206</v>
       </c>
       <c r="K17">
-        <v>0.8949615110918501</v>
+        <v>2.329137347977706</v>
       </c>
       <c r="L17">
-        <v>0.3811524666188006</v>
+        <v>0.5570055445758726</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.185064233538087</v>
+        <v>0.9135097596697683</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8457045632981135</v>
+        <v>1.121900599185381</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.100137025250433</v>
+        <v>0.04214233179321525</v>
       </c>
       <c r="E18">
-        <v>0.1184128924440531</v>
+        <v>0.04369676012278845</v>
       </c>
       <c r="F18">
-        <v>2.008993282394954</v>
+        <v>1.222705938395464</v>
       </c>
       <c r="G18">
-        <v>1.381516056256103</v>
+        <v>1.002081310644613</v>
       </c>
       <c r="H18">
-        <v>1.270653502900046</v>
+        <v>0.6434929218855814</v>
       </c>
       <c r="I18">
-        <v>1.252490412489031</v>
+        <v>0.5435596506265767</v>
       </c>
       <c r="J18">
-        <v>0.1647125429189433</v>
+        <v>0.06994914713691358</v>
       </c>
       <c r="K18">
-        <v>0.8787007959302287</v>
+        <v>2.2695295105772</v>
       </c>
       <c r="L18">
-        <v>0.3779319249970143</v>
+        <v>0.543580042596659</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.189974339434833</v>
+        <v>0.9253716494383131</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.843406008998727</v>
+        <v>1.112708911730351</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1001110242041108</v>
+        <v>0.04196794733923781</v>
       </c>
       <c r="E19">
-        <v>0.1184373843250022</v>
+        <v>0.0437020721659791</v>
       </c>
       <c r="F19">
-        <v>2.008760185666603</v>
+        <v>1.217972965297378</v>
       </c>
       <c r="G19">
-        <v>1.381055255252861</v>
+        <v>0.997346495139638</v>
       </c>
       <c r="H19">
-        <v>1.270824793307526</v>
+        <v>0.641883668819176</v>
       </c>
       <c r="I19">
-        <v>1.253080474840935</v>
+        <v>0.543752414494989</v>
       </c>
       <c r="J19">
-        <v>0.1647496795948498</v>
+        <v>0.07000346633992605</v>
       </c>
       <c r="K19">
-        <v>0.8731990280874697</v>
+        <v>2.249376668147704</v>
       </c>
       <c r="L19">
-        <v>0.3768442108099208</v>
+        <v>0.539044363273149</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.191648022319781</v>
+        <v>0.9294134883311926</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8537703637485947</v>
+        <v>1.154128185567174</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1002291907585331</v>
+        <v>0.04275460977378032</v>
       </c>
       <c r="E20">
-        <v>0.1183282859057631</v>
+        <v>0.04367991199163601</v>
       </c>
       <c r="F20">
-        <v>2.009872718277862</v>
+        <v>1.239440615868517</v>
       </c>
       <c r="G20">
-        <v>1.383180231405021</v>
+        <v>1.018814205272761</v>
       </c>
       <c r="H20">
-        <v>1.270089708502454</v>
+        <v>0.6492123613647749</v>
       </c>
       <c r="I20">
-        <v>1.25045793983643</v>
+        <v>0.5429580897821822</v>
       </c>
       <c r="J20">
-        <v>0.1645838222276028</v>
+        <v>0.06976110968698235</v>
       </c>
       <c r="K20">
-        <v>0.8979728199412307</v>
+        <v>2.34018367218485</v>
       </c>
       <c r="L20">
-        <v>0.3817498008383353</v>
+        <v>0.5594951201207152</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.184160806119461</v>
+        <v>0.9113266283998716</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.888951449051973</v>
+        <v>1.294332481837188</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.100646401323722</v>
+        <v>0.04543299960458214</v>
       </c>
       <c r="E21">
-        <v>0.1179812496016841</v>
+        <v>0.04363678992912057</v>
       </c>
       <c r="F21">
-        <v>2.014722837713464</v>
+        <v>1.314660895087215</v>
       </c>
       <c r="G21">
-        <v>1.391218394743078</v>
+        <v>1.093897672690233</v>
       </c>
       <c r="H21">
-        <v>1.268245141859111</v>
+        <v>0.6754224457990432</v>
       </c>
       <c r="I21">
-        <v>1.242220618268057</v>
+        <v>0.5416124780627101</v>
       </c>
       <c r="J21">
-        <v>0.1640486055288073</v>
+        <v>0.06898390729843795</v>
       </c>
       <c r="K21">
-        <v>0.981473430796683</v>
+        <v>2.6475182202187</v>
       </c>
       <c r="L21">
-        <v>0.3984195458753561</v>
+        <v>0.6289517663675639</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.159784522969176</v>
+        <v>0.8523850166635007</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9122085528301511</v>
+        <v>1.386825232570033</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1009340043183826</v>
+        <v>0.04721216907817904</v>
       </c>
       <c r="E22">
-        <v>0.1177689392715129</v>
+        <v>0.04363299778469187</v>
       </c>
       <c r="F22">
-        <v>2.01872116862053</v>
+        <v>1.366302221393269</v>
       </c>
       <c r="G22">
-        <v>1.397142003933467</v>
+        <v>1.145356552988588</v>
       </c>
       <c r="H22">
-        <v>1.267505289109437</v>
+        <v>0.6938190741744847</v>
       </c>
       <c r="I22">
-        <v>1.237264695075382</v>
+        <v>0.5417740895698344</v>
       </c>
       <c r="J22">
-        <v>0.1637151895185003</v>
+        <v>0.06850435094707308</v>
       </c>
       <c r="K22">
-        <v>1.036239854863993</v>
+        <v>2.85028482295607</v>
       </c>
       <c r="L22">
-        <v>0.4094533306887058</v>
+        <v>0.6749647024050631</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.144434651543421</v>
+        <v>0.8152826526656263</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8997718010666063</v>
+        <v>1.337375637888385</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1007791462113161</v>
+        <v>0.04625980739601232</v>
       </c>
       <c r="E23">
-        <v>0.1178809299297958</v>
+        <v>0.04363271950664505</v>
       </c>
       <c r="F23">
-        <v>2.016511402932821</v>
+        <v>1.338501543734452</v>
       </c>
       <c r="G23">
-        <v>1.393919105332415</v>
+        <v>1.117661146609905</v>
       </c>
       <c r="H23">
-        <v>1.267857572288449</v>
+        <v>0.6838789001695602</v>
       </c>
       <c r="I23">
-        <v>1.239870647623775</v>
+        <v>0.5415889231960023</v>
       </c>
       <c r="J23">
-        <v>0.1638916443442211</v>
+        <v>0.06875765036455039</v>
       </c>
       <c r="K23">
-        <v>1.006992421198191</v>
+        <v>2.741874059671716</v>
       </c>
       <c r="L23">
-        <v>0.403551705668562</v>
+        <v>0.6503458247274807</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.152573946001789</v>
+        <v>0.8349511968095911</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8531998479423919</v>
+        <v>1.151849928327465</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1002226253798391</v>
+        <v>0.04271128289011372</v>
       </c>
       <c r="E24">
-        <v>0.1183342035090598</v>
+        <v>0.04368101354107878</v>
       </c>
       <c r="F24">
-        <v>2.009807438247975</v>
+        <v>1.238250513996434</v>
       </c>
       <c r="G24">
-        <v>1.383060158853837</v>
+        <v>1.017624637455143</v>
       </c>
       <c r="H24">
-        <v>1.270127722968368</v>
+        <v>0.6488041413641525</v>
       </c>
       <c r="I24">
-        <v>1.250599796878376</v>
+        <v>0.5429968668138088</v>
       </c>
       <c r="J24">
-        <v>0.164592847277429</v>
+        <v>0.06977428105687844</v>
       </c>
       <c r="K24">
-        <v>0.8966113609472188</v>
+        <v>2.33518916037454</v>
       </c>
       <c r="L24">
-        <v>0.3814797015907203</v>
+        <v>0.5583694157911054</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.184569035569456</v>
+        <v>0.912313136195948</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8041168202159099</v>
+        <v>0.9548902169517817</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09968717352927214</v>
+        <v>0.03899201213202019</v>
       </c>
       <c r="E25">
-        <v>0.1188857047724921</v>
+        <v>0.04383136265296983</v>
       </c>
       <c r="F25">
-        <v>2.006135772623267</v>
+        <v>1.139653395180432</v>
       </c>
       <c r="G25">
-        <v>1.374221041898522</v>
+        <v>0.9188028603111462</v>
       </c>
       <c r="H25">
-        <v>1.274577744961448</v>
+        <v>0.6158785987499726</v>
       </c>
       <c r="I25">
-        <v>1.264010236293686</v>
+        <v>0.5486390515118629</v>
       </c>
       <c r="J25">
-        <v>0.1654198478637481</v>
+        <v>0.07098809390402439</v>
       </c>
       <c r="K25">
-        <v>0.7783983018283323</v>
+        <v>1.903186667981089</v>
       </c>
       <c r="L25">
-        <v>0.3582733285847581</v>
+        <v>0.4614135468325742</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.221575506376224</v>
+        <v>1.001494440913847</v>
       </c>
       <c r="O25">
         <v>0</v>
